--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
   <si>
     <t>谭磊</t>
   </si>
@@ -502,13 +502,16 @@
   <si>
     <t>刘鑫宇</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>web前端开发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +534,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1038,15 +1042,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>97</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1086,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1187,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1197,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1207,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1227,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1237,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1245,7 +1249,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1268,7 +1272,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1292,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1348,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -1409,7 +1413,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>78</v>
       </c>
@@ -1521,7 +1525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -1589,7 +1593,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="6" t="s">
         <v>91</v>
       </c>
@@ -1615,19 +1619,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>97</v>
       </c>
@@ -1646,7 +1650,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1661,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1674,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1700,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1713,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1726,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1746,7 +1750,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1761,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1768,7 +1772,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1779,7 +1783,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1790,7 +1794,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1805,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1816,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1827,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1838,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1849,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1860,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1867,7 +1871,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1882,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1889,7 +1893,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1900,7 +1904,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -1911,7 +1915,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>37</v>
       </c>
@@ -1922,7 +1926,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1937,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>41</v>
       </c>
@@ -1944,7 +1948,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
@@ -1955,7 +1959,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1981,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>50</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="18" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2014,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
@@ -2021,7 +2025,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="18" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>58</v>
       </c>
@@ -2043,7 +2047,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="18" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -2054,7 +2058,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="18" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>60</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>62</v>
       </c>
@@ -2076,7 +2080,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="18" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>68</v>
       </c>
@@ -2098,7 +2102,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="18" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>69</v>
       </c>
@@ -2109,7 +2113,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>71</v>
       </c>
@@ -2120,7 +2124,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>73</v>
       </c>
@@ -2131,7 +2135,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>75</v>
       </c>
@@ -2142,7 +2146,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="18" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>78</v>
       </c>
@@ -2153,7 +2157,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="18" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>80</v>
       </c>
@@ -2164,7 +2168,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>82</v>
       </c>
@@ -2175,7 +2179,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>84</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="18" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>85</v>
       </c>
@@ -2197,7 +2201,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>87</v>
       </c>
@@ -2208,7 +2212,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>89</v>
       </c>
@@ -2219,7 +2223,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>91</v>
       </c>
@@ -2249,23 +2253,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="18" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="27" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="7" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>97</v>
       </c>
@@ -2284,7 +2288,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>108</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>109</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>153</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>110</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>111</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>112</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>114</v>
       </c>
@@ -2382,7 +2386,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>115</v>
       </c>
@@ -2392,7 +2396,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>116</v>
       </c>
@@ -2402,7 +2406,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>117</v>
       </c>
@@ -2412,17 +2416,19 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>120</v>
       </c>
@@ -2442,7 +2448,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>121</v>
       </c>
@@ -2452,7 +2458,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>122</v>
       </c>
@@ -2462,7 +2468,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>123</v>
       </c>
@@ -2472,7 +2478,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>124</v>
       </c>
@@ -2482,7 +2488,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>125</v>
       </c>
@@ -2492,7 +2498,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>126</v>
       </c>
@@ -2502,7 +2508,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>127</v>
       </c>
@@ -2512,7 +2518,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>128</v>
       </c>
@@ -2522,7 +2528,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>129</v>
       </c>
@@ -2532,7 +2538,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>130</v>
       </c>
@@ -2542,7 +2548,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>131</v>
       </c>
@@ -2552,7 +2558,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>132</v>
       </c>
@@ -2562,7 +2568,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>133</v>
       </c>
@@ -2572,7 +2578,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>134</v>
       </c>
@@ -2582,7 +2588,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>135</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>136</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>137</v>
       </c>
@@ -2612,7 +2618,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>138</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>139</v>
       </c>
@@ -2632,7 +2638,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>140</v>
       </c>
@@ -2642,7 +2648,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>141</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>142</v>
       </c>
@@ -2662,7 +2668,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>143</v>
       </c>
@@ -2672,7 +2678,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="18" t="s">
         <v>144</v>
       </c>
@@ -2682,7 +2688,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>145</v>
       </c>
@@ -2692,7 +2698,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>146</v>
       </c>
@@ -2702,7 +2708,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>147</v>
       </c>
@@ -2712,7 +2718,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>148</v>
       </c>
@@ -2722,7 +2728,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>149</v>
       </c>
@@ -2732,7 +2738,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>150</v>
       </c>
@@ -2742,7 +2748,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>151</v>
       </c>
@@ -2752,7 +2758,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>152</v>
       </c>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8895" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -485,12 +485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,24 +513,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -542,8 +528,83 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,21 +619,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,68 +640,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -662,9 +656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +672,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +732,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,37 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,73 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,43 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,45 +947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1020,8 +974,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,10 +1214,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1233,25 +1226,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2188,7 +2181,7 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2822,8 +2815,8 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3312,7 +3305,9 @@
         <v>150</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8892" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +518,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +611,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +682,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +979,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1831,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1865,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2164,36 +1554,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +1662,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +1675,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +1688,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2312,7 +1699,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2323,7 +1710,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +1721,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +1732,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +1743,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2367,7 +1754,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2378,7 +1765,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2389,7 +1776,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2400,7 +1787,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2411,7 +1798,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2422,7 +1809,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2433,7 +1820,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +1831,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2455,7 +1842,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2466,7 +1853,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +1864,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2488,7 +1875,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2499,7 +1886,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2510,7 +1897,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2521,7 +1908,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2532,7 +1919,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2545,7 +1932,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +1943,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2567,7 +1954,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2578,7 +1965,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2589,7 +1976,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2600,7 +1987,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2611,7 +1998,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2622,7 +2009,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2633,7 +2020,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2644,7 +2031,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2655,7 +2042,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2666,7 +2053,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2677,7 +2064,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2688,7 +2075,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2699,7 +2086,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2710,7 +2097,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2721,7 +2108,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2732,7 +2119,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2743,7 +2130,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2141,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2765,7 +2152,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2776,7 +2163,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2787,7 +2174,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2799,6 +2186,7 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
@@ -2806,32 +2194,30 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2236,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2863,7 +2249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2876,7 +2262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2889,7 +2275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2902,7 +2288,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2915,7 +2301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2928,7 +2314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2938,7 +2324,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2948,7 +2334,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +2344,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2968,7 +2354,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2978,7 +2364,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2990,7 +2376,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3000,7 +2386,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3010,7 +2396,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3020,7 +2406,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3030,7 +2416,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -3040,7 +2426,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3050,7 +2436,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3060,7 +2446,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3070,7 +2456,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3080,7 +2466,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3090,7 +2476,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3100,7 +2486,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3110,7 +2496,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3120,7 +2506,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3130,7 +2516,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3140,7 +2526,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3150,7 +2536,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -3160,7 +2546,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3170,7 +2556,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3180,7 +2566,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3190,7 +2576,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3200,7 +2586,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3210,7 +2596,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3220,7 +2606,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3230,7 +2616,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3240,7 +2626,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3250,7 +2636,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3260,7 +2646,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3270,7 +2656,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3280,7 +2666,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3290,7 +2676,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3300,7 +2686,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3312,17 +2698,19 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D46" s="12"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3333,13 +2721,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsdn\Desktop\abc\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -488,8 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,7 +991,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.88671875" customWidth="1"/>
@@ -999,7 +999,7 @@
     <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1572,7 +1572,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
@@ -1580,7 +1580,7 @@
     <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2201,11 +2201,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
@@ -2217,7 +2217,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2426,17 +2426,19 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2446,7 +2448,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2456,7 +2458,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2476,7 +2478,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2486,7 +2488,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2496,7 +2498,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2516,7 +2518,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2536,7 +2538,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2546,7 +2548,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2566,7 +2568,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2576,7 +2578,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2596,7 +2598,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2616,7 +2618,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2646,7 +2648,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2686,7 +2688,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2710,7 +2712,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsdn\Desktop\abc\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittt\jj\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67676D84-F50F-4B00-B885-44D1C35F433B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8892" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -488,7 +489,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,9 +775,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,6 +827,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,22 +1019,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1070,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1171,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1181,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1191,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1211,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1221,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1233,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1256,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1276,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1332,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1388,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1397,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1445,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1577,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1554,8 +1589,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
-  <sortState ref="A18:E52">
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1565,22 +1600,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1634,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1645,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1658,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1671,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1684,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1697,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1710,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1723,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1734,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1745,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1756,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1767,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1743,7 +1778,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1789,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1800,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1811,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1822,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1833,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1844,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +1855,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +1866,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1877,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1888,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1899,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1910,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1886,7 +1921,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1897,7 +1932,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1908,7 +1943,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1919,7 +1954,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1932,7 +1967,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1943,7 +1978,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1954,7 +1989,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1965,7 +2000,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1976,7 +2011,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1987,7 +2022,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -1998,7 +2033,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2009,7 +2044,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2055,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2066,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2042,7 +2077,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2053,7 +2088,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2099,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2075,7 +2110,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2086,7 +2121,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2097,7 +2132,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2108,7 +2143,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2119,7 +2154,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2130,7 +2165,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2141,7 +2176,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2152,7 +2187,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2174,7 +2209,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2188,7 +2223,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2198,26 +2233,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2271,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2249,7 +2284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2275,7 +2310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2314,7 +2349,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2324,7 +2359,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2334,7 +2369,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2344,7 +2379,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2354,7 +2389,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2364,7 +2399,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2376,7 +2411,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2386,7 +2421,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2396,7 +2431,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2406,17 +2441,19 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2426,7 +2463,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2438,7 +2475,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2448,7 +2485,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2458,7 +2495,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2468,17 +2505,19 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2488,7 +2527,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2498,7 +2537,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2508,7 +2547,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2518,7 +2557,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2528,7 +2567,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2538,7 +2577,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2548,7 +2587,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2558,7 +2597,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2568,7 +2607,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2578,7 +2617,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2588,7 +2627,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2598,7 +2637,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2608,7 +2647,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2618,7 +2657,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2628,7 +2667,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2638,7 +2677,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2648,7 +2687,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2658,7 +2697,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2668,7 +2707,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2678,7 +2717,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2688,7 +2727,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2700,7 +2739,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2712,7 +2751,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2725,7 +2764,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittt\jj\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67676D84-F50F-4B00-B885-44D1C35F433B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21990" windowHeight="11280" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -489,8 +483,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,22 +519,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -612,9 +935,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,17 +1248,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -742,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,26 +1384,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,23 +1419,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1014,19 +1589,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="39.875" customWidth="1"/>
@@ -1034,7 +1609,7 @@
     <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1645,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1113,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1145,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1153,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1171,7 +1746,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1756,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1766,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1786,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1221,7 +1796,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1808,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1244,7 +1819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1256,7 +1831,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1267,7 +1842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1276,7 +1851,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1290,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1301,7 +1876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1312,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1323,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1332,7 +1907,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1343,7 +1918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1354,7 +1929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1368,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1379,7 +1954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1388,7 +1963,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1397,7 +1972,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1408,7 +1983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1436,7 +2011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1445,7 +2020,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1456,7 +2031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1470,7 +2045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1481,7 +2056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1495,7 +2070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1509,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1523,7 +2098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1535,7 +2110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1546,7 +2121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1557,7 +2132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1568,7 +2143,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1577,7 +2152,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1589,25 +2164,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:E52">
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
@@ -1615,7 +2193,7 @@
     <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +2212,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +2223,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +2236,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +2249,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +2262,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +2275,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +2288,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1723,7 +2301,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +2312,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +2323,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +2334,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1767,7 +2345,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1778,7 +2356,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +2367,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1800,7 +2378,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +2389,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1822,7 +2400,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1833,7 +2411,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1844,7 +2422,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +2433,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +2444,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1877,7 +2455,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1888,7 +2466,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1899,7 +2477,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1910,7 +2488,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1921,7 +2499,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +2510,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1943,7 +2521,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1954,7 +2532,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1967,7 +2545,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1978,7 +2556,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1989,7 +2567,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2000,7 +2578,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2011,7 +2589,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2022,7 +2600,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2033,7 +2611,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2044,7 +2622,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2055,7 +2633,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2066,7 +2644,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2077,7 +2655,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2088,7 +2666,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2099,7 +2677,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2110,7 +2688,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2121,7 +2699,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2132,7 +2710,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2143,7 +2721,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2154,7 +2732,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2165,7 +2743,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2176,7 +2754,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2187,7 +2765,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2198,7 +2776,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2209,7 +2787,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2221,26 +2799,27 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
@@ -2252,7 +2831,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2850,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2284,7 +2863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2297,7 +2876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2310,7 +2889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2902,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2336,7 +2915,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2349,7 +2928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2359,7 +2938,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2369,7 +2948,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2379,7 +2958,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2389,7 +2968,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2399,7 +2978,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2411,7 +2990,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2421,7 +3000,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2431,7 +3010,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2441,7 +3020,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2453,7 +3032,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2463,7 +3042,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2475,7 +3054,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2485,7 +3064,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2495,7 +3074,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2505,7 +3084,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2517,7 +3096,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2527,7 +3106,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2537,7 +3116,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2547,7 +3126,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2557,7 +3136,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2567,7 +3146,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2577,7 +3156,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2587,7 +3166,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2597,7 +3176,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2607,7 +3186,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2617,7 +3196,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2627,7 +3206,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2637,7 +3216,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2647,7 +3226,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2657,7 +3236,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2667,7 +3246,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2677,17 +3256,19 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D40" s="12"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2697,7 +3278,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2707,7 +3288,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2717,7 +3298,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2727,7 +3308,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2739,7 +3320,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2751,7 +3332,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2762,13 +3343,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21990" windowHeight="11280" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -336,10 +336,10 @@
     <t>运维</t>
   </si>
   <si>
+    <t>自主择业</t>
+  </si>
+  <si>
     <t>网络营销</t>
-  </si>
-  <si>
-    <t>自主择业</t>
   </si>
   <si>
     <t>专接本</t>
@@ -526,24 +526,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,14 +566,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -589,14 +589,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,14 +611,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -633,9 +633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,16 +642,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,7 +684,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,79 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,79 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,15 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -962,8 +953,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -971,11 +964,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,21 +991,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,7 +1014,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,30 +1041,30 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,112 +1074,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,8 +2181,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2267,11 +2267,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -2284,7 +2286,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -2815,7 +2817,7 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2899,7 +2901,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
@@ -2912,7 +2914,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -3326,7 +3328,7 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +518,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +611,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +682,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +979,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1831,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1865,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2164,36 +1554,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +1734,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +1745,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2369,7 +1756,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +1767,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +1778,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +1789,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +1800,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +1811,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +1822,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2446,7 +1833,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +1844,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +1855,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +1866,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +1877,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +1888,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +1899,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +1910,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +1921,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +1934,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +1945,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +1956,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +1967,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +1978,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2602,7 +1989,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2613,7 +2000,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2624,7 +2011,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2635,7 +2022,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2033,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2044,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2668,7 +2055,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2679,7 +2066,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2690,7 +2077,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2701,7 +2088,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2099,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2110,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2734,7 +2121,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2745,7 +2132,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2756,7 +2143,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2767,7 +2154,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2778,7 +2165,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2789,7 +2176,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2801,6 +2188,7 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
@@ -2808,32 +2196,30 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2238,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2865,7 +2251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2878,7 +2264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2891,7 +2277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2904,7 +2290,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2917,7 +2303,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2930,7 +2316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2940,7 +2326,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2950,7 +2336,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2960,7 +2346,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2970,7 +2356,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2980,7 +2366,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2992,7 +2378,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3002,17 +2388,19 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3022,7 +2410,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3034,7 +2422,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -3044,7 +2432,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3056,7 +2444,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3066,7 +2454,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3076,7 +2464,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3086,7 +2474,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3098,7 +2486,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3108,7 +2496,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3118,7 +2506,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3128,7 +2516,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3138,7 +2526,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3148,7 +2536,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3158,7 +2546,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -3168,7 +2556,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3178,7 +2566,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3188,7 +2576,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3198,7 +2586,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3208,7 +2596,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3218,7 +2606,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3228,7 +2616,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3238,7 +2626,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3248,7 +2636,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3258,7 +2646,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3270,7 +2658,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3280,7 +2668,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3290,7 +2678,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3300,7 +2688,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3310,7 +2698,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3322,7 +2710,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -3334,7 +2722,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3345,13 +2733,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18150" windowHeight="7740" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -485,8 +485,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -520,7 +520,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +535,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,23 +579,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,30 +603,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,7 +626,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +649,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,21 +658,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +672,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,49 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,37 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,61 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,6 +937,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -947,6 +971,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,60 +1033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,8 +2181,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2717,7 +2717,9 @@
         <v>83</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28320" windowHeight="11025" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -488,8 +483,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,22 +519,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -611,9 +935,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,17 +1248,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,27 +1589,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1645,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1766,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1808,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1221,7 +1831,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1907,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1963,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1972,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +2011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +2020,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1554,33 +2164,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +2212,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +2223,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +2236,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +2249,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +2262,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +2277,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +2290,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +2303,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +2314,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +2325,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +2336,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +2347,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +2358,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +2369,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +2380,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +2391,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +2402,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +2413,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +2424,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +2435,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +2446,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +2457,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1855,7 +2468,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +2479,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +2490,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +2501,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +2512,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +2523,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +2534,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +2547,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +2558,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +2569,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1967,7 +2580,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +2591,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1989,7 +2602,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2000,7 +2613,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2011,7 +2624,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +2635,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2646,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2044,7 +2657,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2055,7 +2668,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2066,7 +2679,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2077,7 +2690,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2088,7 +2701,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2712,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2110,7 +2723,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2121,7 +2734,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2132,7 +2745,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2143,7 +2756,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2154,7 +2767,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2165,7 +2778,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2176,7 +2789,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2188,7 +2801,6 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
@@ -2196,30 +2808,32 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2852,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2251,7 +2865,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2264,7 +2878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2277,7 +2891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2290,7 +2904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2303,7 +2917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2316,7 +2930,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2326,7 +2940,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2336,7 +2950,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2346,7 +2960,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2356,7 +2970,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2366,7 +2980,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2378,7 +2992,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2388,7 +3002,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2400,7 +3014,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2410,7 +3024,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2422,7 +3036,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2432,7 +3046,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2444,7 +3058,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2454,7 +3068,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2464,7 +3078,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2474,7 +3088,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2486,7 +3100,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2496,7 +3110,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2506,7 +3120,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2516,7 +3130,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2526,7 +3140,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2536,17 +3150,19 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2556,7 +3172,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2566,7 +3182,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2576,7 +3192,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2586,7 +3202,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2596,7 +3212,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2606,7 +3222,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2616,7 +3232,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2626,7 +3242,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2636,7 +3252,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2646,7 +3262,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2658,7 +3274,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2668,7 +3284,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2678,7 +3294,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2688,7 +3304,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2698,7 +3314,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2710,7 +3326,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2722,7 +3338,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2733,13 +3349,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\java\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28320" windowHeight="11025" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28320" windowHeight="11025" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +518,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +610,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +681,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +978,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1034,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1135,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1145,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1155,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1175,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1185,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1197,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1220,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +1240,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1296,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1352,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1361,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1409,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +1420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +1434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2056,7 +1445,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +1459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +1473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +1487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +1499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2121,7 +1510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2132,7 +1521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2143,7 +1532,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +1541,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2164,36 +1553,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1598,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1609,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1622,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1635,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1648,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +1663,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +1676,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +1689,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +1700,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +1711,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +1722,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +1733,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +1744,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2369,7 +1755,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +1766,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +1777,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +1788,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +1799,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +1810,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +1821,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2446,7 +1832,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +1843,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +1854,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +1865,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +1876,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +1887,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +1898,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +1909,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +1920,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +1933,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +1944,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +1955,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +1966,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +1977,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2602,7 +1988,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2613,7 +1999,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2624,7 +2010,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2635,7 +2021,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2032,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2043,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2668,7 +2054,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2679,7 +2065,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2690,7 +2076,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2701,7 +2087,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2098,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2109,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2734,7 +2120,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2745,7 +2131,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2756,7 +2142,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2767,7 +2153,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2778,7 +2164,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2789,7 +2175,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2801,6 +2187,7 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
@@ -2808,32 +2195,30 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2237,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2865,7 +2250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2878,7 +2263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2891,7 +2276,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2904,7 +2289,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2917,7 +2302,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2930,7 +2315,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2940,7 +2325,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2950,7 +2335,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2960,7 +2345,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2970,7 +2355,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2980,7 +2365,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2992,7 +2377,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3002,7 +2387,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3014,7 +2399,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3024,7 +2409,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3036,7 +2421,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -3046,7 +2431,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3058,7 +2443,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3068,7 +2453,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3078,7 +2463,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3088,7 +2473,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3100,7 +2485,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3110,7 +2495,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3120,7 +2505,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3130,7 +2515,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3140,7 +2525,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3150,7 +2535,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3162,17 +2547,19 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D30" s="12"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3182,7 +2569,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3192,7 +2579,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3202,7 +2589,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3212,7 +2599,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3222,7 +2609,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3232,7 +2619,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3242,7 +2629,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3252,7 +2639,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3262,7 +2649,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3274,7 +2661,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3284,7 +2671,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3294,7 +2681,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3304,7 +2691,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3314,7 +2701,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3326,7 +2713,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -3338,7 +2725,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3349,13 +2736,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\刘正杰\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A002C80-D540-4A7C-9618-F71F570C204C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="155">
   <si>
     <t>谭磊</t>
   </si>
@@ -502,12 +503,15 @@
   <si>
     <t>刘鑫宇</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>java开发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,22 +1035,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>97</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1086,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1187,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1197,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1207,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1227,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1237,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1245,7 +1249,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1268,7 +1272,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1292,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1348,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -1409,7 +1413,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>78</v>
       </c>
@@ -1521,7 +1525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -1589,7 +1593,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>91</v>
       </c>
@@ -1601,7 +1605,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
@@ -1612,22 +1616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>97</v>
       </c>
@@ -1646,7 +1650,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1661,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1674,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1700,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1713,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1726,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1746,7 +1750,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1761,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1768,7 +1772,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1779,7 +1783,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1790,7 +1794,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1805,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1816,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1827,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1838,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1849,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1860,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1867,7 +1871,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1882,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1889,7 +1893,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1900,7 +1904,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -1911,7 +1915,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>37</v>
       </c>
@@ -1922,7 +1926,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1937,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>41</v>
       </c>
@@ -1944,7 +1948,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
@@ -1955,7 +1959,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1981,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>50</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2014,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
@@ -2021,7 +2025,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>58</v>
       </c>
@@ -2043,7 +2047,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -2054,7 +2058,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>60</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>62</v>
       </c>
@@ -2076,7 +2080,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>68</v>
       </c>
@@ -2098,7 +2102,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>69</v>
       </c>
@@ -2109,7 +2113,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>71</v>
       </c>
@@ -2120,7 +2124,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>73</v>
       </c>
@@ -2131,7 +2135,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>75</v>
       </c>
@@ -2142,7 +2146,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>78</v>
       </c>
@@ -2153,7 +2157,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>80</v>
       </c>
@@ -2164,7 +2168,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>82</v>
       </c>
@@ -2175,7 +2179,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>84</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>85</v>
       </c>
@@ -2197,7 +2201,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>87</v>
       </c>
@@ -2208,7 +2212,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>89</v>
       </c>
@@ -2219,7 +2223,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>91</v>
       </c>
@@ -2232,11 +2236,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C53">
-      <formula1>$F$3:$F$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2246,26 +2247,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="18" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="27" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="7" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>97</v>
       </c>
@@ -2284,7 +2285,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>108</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>109</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>153</v>
       </c>
@@ -2323,12 +2324,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="D5" s="20"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2336,7 +2339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>111</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>112</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>114</v>
       </c>
@@ -2382,7 +2385,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>115</v>
       </c>
@@ -2392,7 +2395,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>116</v>
       </c>
@@ -2402,7 +2405,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>117</v>
       </c>
@@ -2412,7 +2415,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>118</v>
       </c>
@@ -2422,7 +2425,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -2432,7 +2435,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>120</v>
       </c>
@@ -2442,7 +2445,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>121</v>
       </c>
@@ -2452,17 +2455,19 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>123</v>
       </c>
@@ -2472,7 +2477,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>124</v>
       </c>
@@ -2482,7 +2487,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>125</v>
       </c>
@@ -2492,7 +2497,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>126</v>
       </c>
@@ -2502,7 +2507,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>127</v>
       </c>
@@ -2512,7 +2517,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>128</v>
       </c>
@@ -2522,7 +2527,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>129</v>
       </c>
@@ -2532,7 +2537,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>130</v>
       </c>
@@ -2542,7 +2547,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>131</v>
       </c>
@@ -2552,7 +2557,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>132</v>
       </c>
@@ -2562,7 +2567,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>133</v>
       </c>
@@ -2572,7 +2577,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>134</v>
       </c>
@@ -2582,7 +2587,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>135</v>
       </c>
@@ -2592,7 +2597,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>136</v>
       </c>
@@ -2602,7 +2607,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>137</v>
       </c>
@@ -2612,7 +2617,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>138</v>
       </c>
@@ -2622,7 +2627,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>139</v>
       </c>
@@ -2632,7 +2637,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>140</v>
       </c>
@@ -2642,7 +2647,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>141</v>
       </c>
@@ -2652,7 +2657,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>142</v>
       </c>
@@ -2662,7 +2667,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>143</v>
       </c>
@@ -2672,7 +2677,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>144</v>
       </c>
@@ -2682,7 +2687,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>145</v>
       </c>
@@ -2692,7 +2697,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>146</v>
       </c>
@@ -2702,7 +2707,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>147</v>
       </c>
@@ -2712,7 +2717,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>148</v>
       </c>
@@ -2722,7 +2727,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>149</v>
       </c>
@@ -2732,7 +2737,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>150</v>
       </c>
@@ -2742,7 +2747,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>151</v>
       </c>
@@ -2752,7 +2757,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>152</v>
       </c>
@@ -2765,7 +2770,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\java\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课堂\000\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FE58C5-5561-41F9-AA07-DB608B669972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28320" windowHeight="11025" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -488,7 +489,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1553,7 +1554,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
@@ -1564,11 +1565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1837,7 +1838,9 @@
         <v>34</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2189,7 +2192,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2199,10 +2202,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2738,7 +2741,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -486,9 +486,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -527,23 +527,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,16 +575,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,13 +591,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,33 +613,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,23 +648,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +672,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,49 +768,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,73 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,19 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,21 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -971,17 +956,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,6 +975,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1015,24 +1033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,19 +1053,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,109 +1074,109 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2181,7 +2181,7 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2819,8 +2819,8 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3117,7 +3117,9 @@
         <v>130</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyf\Desktop\03\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C61AB98-00C8-46A8-BCF0-0942AC321511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="3600" yWindow="2856" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +519,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +611,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +682,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +979,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="39.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2056,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2121,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2132,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2143,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2164,36 +1554,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.8796296296296" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.37962962962963" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +1734,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +1745,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2369,7 +1756,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +1767,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +1778,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +1789,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +1800,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +1811,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +1822,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2446,7 +1833,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +1844,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +1855,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +1866,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +1877,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +1888,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +1899,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +1910,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +1921,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +1934,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +1945,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2571,7 +1958,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2582,7 +1969,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2593,7 +1980,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2604,18 +1991,20 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2626,7 +2015,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2637,7 +2026,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2648,7 +2037,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2659,7 +2048,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2670,7 +2059,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2681,7 +2070,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2692,7 +2081,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2703,7 +2092,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2714,7 +2103,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2725,7 +2114,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2736,7 +2125,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2747,7 +2136,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2758,7 +2147,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2158,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2780,7 +2169,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2791,7 +2180,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2803,39 +2192,38 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8796296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2242,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +2255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2880,7 +2268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2893,7 +2281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +2294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2919,7 +2307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2932,7 +2320,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2942,7 +2330,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2952,7 +2340,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2962,7 +2350,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2972,7 +2360,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2982,7 +2370,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2994,7 +2382,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3004,7 +2392,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3016,7 +2404,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3026,7 +2414,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3038,7 +2426,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -3048,7 +2436,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3060,7 +2448,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3070,7 +2458,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3080,7 +2468,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3090,7 +2478,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3102,7 +2490,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3112,7 +2500,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3124,7 +2512,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3134,7 +2522,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3144,7 +2532,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3154,7 +2542,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3166,7 +2554,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -3178,7 +2566,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3188,7 +2576,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3198,7 +2586,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3208,7 +2596,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3218,7 +2606,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3228,7 +2616,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3238,7 +2626,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3248,7 +2636,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3258,7 +2646,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3268,7 +2656,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3280,7 +2668,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3290,7 +2678,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3300,7 +2688,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3310,7 +2698,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3320,7 +2708,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3332,7 +2720,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -3344,7 +2732,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3355,13 +2743,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课堂\000\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\刘正杰\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FE58C5-5561-41F9-AA07-DB608B669972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B59BA-4E5A-4A3A-8E9F-A53B5CF6FDF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -991,15 +991,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1568,19 +1568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2205,23 +2205,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2240,12 +2240,14 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2253,7 +2255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2279,12 +2281,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2292,7 +2296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2338,7 +2342,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2348,7 +2352,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2358,7 +2362,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2372,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2380,7 +2384,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2390,7 +2394,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2402,7 +2406,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2424,7 +2428,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2446,7 +2450,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2456,7 +2460,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2466,7 +2470,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2476,7 +2480,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2498,7 +2502,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2508,7 +2512,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2518,7 +2522,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2538,7 +2542,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2550,7 +2554,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2562,7 +2566,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2572,7 +2576,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2582,7 +2586,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2592,7 +2596,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2602,7 +2606,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2622,7 +2626,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2632,7 +2636,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2642,7 +2646,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2652,7 +2656,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2674,7 +2678,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2684,7 +2688,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2694,7 +2698,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2704,7 +2708,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2716,7 +2720,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2728,7 +2732,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzc834061771\Desktop\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13990E-CA2F-4C17-B9E5-B65A83B12F83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18150" windowHeight="7740" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +519,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +612,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +683,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +980,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1036,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1137,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1147,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1157,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1177,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1187,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1199,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1222,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +1242,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1298,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1354,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1363,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1411,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +1422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +1436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2056,7 +1447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +1475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +1489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +1501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2121,7 +1512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2132,7 +1523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2143,7 +1534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +1543,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2164,36 +1555,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A18:E52">
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1600,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1611,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1624,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1637,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1650,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2277,12 +1665,14 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="15" t="s">
@@ -2290,7 +1680,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +1693,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +1704,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +1715,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +1726,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +1737,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +1748,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2369,18 +1759,20 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +1783,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +1794,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +1805,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +1816,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +1827,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2446,7 +1838,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +1849,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +1860,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +1871,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +1882,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +1893,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +1904,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +1915,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +1926,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +1939,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +1950,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +1961,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +1972,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +1983,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2602,7 +1994,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2613,7 +2005,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2624,7 +2016,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2635,7 +2027,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2038,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2049,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2668,7 +2060,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2679,7 +2071,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2690,7 +2082,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2701,7 +2093,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2104,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2725,7 +2117,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2736,7 +2128,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2747,7 +2139,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2758,7 +2150,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2161,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2780,7 +2172,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2791,7 +2183,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2803,39 +2195,38 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2245,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +2258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2880,7 +2271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2893,7 +2284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +2297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2919,7 +2310,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2932,7 +2323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2942,7 +2333,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2952,7 +2343,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2962,7 +2353,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2972,7 +2363,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2982,7 +2373,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2994,7 +2385,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3004,7 +2395,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3014,7 +2405,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3024,7 +2415,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3036,7 +2427,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -3046,7 +2437,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3058,7 +2449,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3068,7 +2459,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3078,7 +2469,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3088,7 +2479,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3100,7 +2491,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3110,7 +2501,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3120,7 +2511,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3130,7 +2521,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3140,7 +2531,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3150,7 +2541,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3160,7 +2551,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -3170,7 +2561,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3180,7 +2571,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3190,7 +2581,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3200,7 +2591,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3210,7 +2601,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3220,7 +2611,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3230,7 +2621,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3240,7 +2631,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3250,7 +2641,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3260,7 +2651,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3272,7 +2663,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3282,7 +2673,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3292,7 +2683,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3302,7 +2693,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3312,7 +2703,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3324,7 +2715,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -3336,7 +2727,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3347,13 +2738,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzc834061771\Desktop\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13990E-CA2F-4C17-B9E5-B65A83B12F83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17700" windowHeight="8567" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -489,8 +483,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,22 +519,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -612,9 +935,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,17 +1248,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -980,27 +1589,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1645,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1079,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1119,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1127,7 +1736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1746,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1756,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1766,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1177,7 +1786,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1187,7 +1796,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1808,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1222,7 +1831,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1242,7 +1851,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1256,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1267,7 +1876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1289,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1907,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1309,7 +1918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1320,7 +1929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1334,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1354,7 +1963,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1363,7 +1972,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1374,7 +1983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1388,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1402,7 +2011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1411,7 +2020,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1422,7 +2031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1436,7 +2045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1447,7 +2056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1461,7 +2070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1475,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1489,7 +2098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1501,7 +2110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1512,7 +2121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1523,7 +2132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1534,7 +2143,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1543,7 +2152,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1555,33 +2164,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:E52">
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8888888888889" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +2212,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +2223,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +2236,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +2249,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +2262,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +2277,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +2292,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +2305,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +2316,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +2327,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +2338,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +2349,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +2360,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +2371,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +2384,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +2395,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1794,7 +2406,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +2417,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1816,7 +2428,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1827,7 +2439,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +2450,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +2461,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1860,7 +2472,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1871,7 +2483,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1882,7 +2494,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +2505,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1904,7 +2516,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +2527,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1926,7 +2538,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1939,7 +2551,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1950,7 +2562,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1961,7 +2573,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +2584,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1983,7 +2595,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1994,7 +2606,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2005,7 +2617,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2628,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2027,7 +2639,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2038,7 +2650,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2049,7 +2661,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2060,7 +2672,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2071,7 +2683,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2082,7 +2694,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2093,7 +2705,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2104,7 +2716,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2117,7 +2729,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2128,7 +2740,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2139,7 +2751,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2150,7 +2762,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2161,7 +2773,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2172,7 +2784,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2183,7 +2795,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2195,38 +2807,39 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2858,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2258,7 +2871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2271,7 +2884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2284,7 +2897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2297,7 +2910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2310,12 +2923,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -2323,7 +2938,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2333,7 +2948,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2343,7 +2958,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2353,7 +2968,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2363,7 +2978,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2373,7 +2988,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2385,7 +3000,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2395,7 +3010,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2405,7 +3020,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2415,7 +3030,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2427,7 +3042,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2437,7 +3052,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2449,7 +3064,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2459,7 +3074,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2469,7 +3084,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2479,7 +3094,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2491,7 +3106,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2501,7 +3116,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2511,7 +3126,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2521,7 +3136,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2531,7 +3146,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2541,7 +3156,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2551,7 +3166,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2561,7 +3176,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2571,7 +3186,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2581,7 +3196,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2591,7 +3206,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2601,7 +3216,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2611,7 +3226,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2621,7 +3236,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2631,7 +3246,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2641,7 +3256,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2651,7 +3266,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2663,7 +3278,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2673,7 +3288,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2683,7 +3298,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2693,7 +3308,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2703,7 +3318,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2715,7 +3330,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2727,7 +3342,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2738,13 +3353,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyf\Desktop\03\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C61AB98-00C8-46A8-BCF0-0942AC321511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2856" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -489,8 +483,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,21 +519,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -611,9 +935,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,17 +1248,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,27 +1589,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1645,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1746,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1756,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1766,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1786,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1796,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1808,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1831,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1851,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1907,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1963,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1972,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +2011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +2020,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +2031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +2045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +2056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +2070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +2098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +2110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +2121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +2132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +2143,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +2152,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1554,33 +2164,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8888888888889" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +2212,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +2223,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +2236,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +2249,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +2262,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +2277,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +2290,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +2303,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +2314,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +2325,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +2336,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +2347,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +2358,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +2369,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +2380,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +2391,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +2402,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +2413,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +2424,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +2435,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +2446,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1844,18 +2457,20 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +2481,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +2492,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +2503,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +2514,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +2525,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +2536,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +2549,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +2560,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1958,7 +2573,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1969,7 +2584,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1980,7 +2595,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1991,7 +2606,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2004,7 +2619,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2015,7 +2630,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2026,7 +2641,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2037,7 +2652,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2048,7 +2663,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2059,7 +2674,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2070,7 +2685,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2081,7 +2696,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2092,7 +2707,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2103,7 +2718,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2114,7 +2729,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2125,7 +2740,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2136,7 +2751,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2147,7 +2762,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2158,7 +2773,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2169,7 +2784,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2180,7 +2795,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2192,38 +2807,39 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2858,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2255,7 +2871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2268,7 +2884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2281,7 +2897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2294,7 +2910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2307,7 +2923,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2320,7 +2936,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2330,7 +2946,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2340,7 +2956,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2350,7 +2966,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2360,7 +2976,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2370,7 +2986,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2382,7 +2998,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2392,7 +3008,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2404,7 +3020,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2414,7 +3030,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2426,7 +3042,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2436,7 +3052,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2448,7 +3064,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2458,7 +3074,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2468,7 +3084,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2478,7 +3094,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2490,7 +3106,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2500,7 +3116,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2512,7 +3128,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2522,7 +3138,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2532,7 +3148,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2542,7 +3158,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2554,7 +3170,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2566,7 +3182,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2576,7 +3192,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2586,7 +3202,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2596,7 +3212,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2606,7 +3222,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2616,7 +3232,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2626,7 +3242,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2636,7 +3252,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2646,7 +3262,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2656,7 +3272,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2668,7 +3284,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2678,7 +3294,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2688,7 +3304,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2698,7 +3314,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2708,7 +3324,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2720,7 +3336,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2732,7 +3348,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2743,13 +3359,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课堂\000\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FE58C5-5561-41F9-AA07-DB608B669972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604228C-28E4-4D4D-9936-0A0A1D605DA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1604,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1615,7 +1617,9 @@
         <v>5</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="15" t="s">
@@ -1628,7 +1632,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="15" t="s">
@@ -1641,7 +1647,9 @@
         <v>7</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="15" t="s">
@@ -1655,7 +1663,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1669,7 +1677,9 @@
         <v>9</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="15" t="s">
@@ -1682,7 +1692,9 @@
         <v>12</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="15" t="s">
@@ -1695,7 +1707,9 @@
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课堂\000\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时光追遂\Desktop\java04\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604228C-28E4-4D4D-9936-0A0A1D605DA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B4DB0-67F0-4091-88DF-3A45C4504EFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="375" windowWidth="21600" windowHeight="13350" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2581,7 +2581,9 @@
         <v>136</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时光追遂\Desktop\java04\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B4DB0-67F0-4091-88DF-3A45C4504EFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="375" windowWidth="21600" windowHeight="13350" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4656" yWindow="372" windowWidth="21600" windowHeight="13356" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -489,8 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +520,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -984,22 +984,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:D53"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
@@ -1565,22 +1565,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="18" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="18" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="18" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="18" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="18" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="18" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="18" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2206,7 +2206,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2216,26 +2216,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2744,12 +2744,14 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D47" s="12"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -2757,11 +2759,11 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18150" windowHeight="7740" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -486,8 +486,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -535,61 +535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,6 +557,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -624,11 +577,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,6 +616,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -655,11 +639,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,25 +672,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,67 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +768,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,17 +936,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,36 +952,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,20 +973,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,6 +1018,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,145 +1041,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,10 +1601,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="39.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
@@ -2181,16 +2181,16 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.8796296296296" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.37962962962963" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -2819,17 +2819,17 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8796296296296" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6296296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
@@ -3145,7 +3145,9 @@
         <v>133</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D28" s="12"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHINFESE\Desktop\0425\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7AF71-78F5-4E71-AF26-6533EFF68FE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="372" windowWidth="21600" windowHeight="13356" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
   <si>
     <t>姓名</t>
   </si>
@@ -483,13 +484,21 @@
   </si>
   <si>
     <t>刘冬颖</t>
+  </si>
+  <si>
+    <t>java开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭威</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,14 +993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.88671875" customWidth="1"/>
@@ -999,7 +1008,7 @@
     <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1044,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1145,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1155,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1165,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1185,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1195,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1207,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1230,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1250,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1306,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1362,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1371,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1419,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1551,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1554,7 +1563,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
@@ -1565,14 +1574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
@@ -1580,7 +1589,7 @@
     <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1608,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1621,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1651,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1666,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1681,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1711,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1724,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1735,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1746,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1757,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1759,7 +1768,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1779,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1790,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1801,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1812,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1823,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1834,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1845,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1847,7 +1856,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1860,7 +1869,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1871,7 +1880,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1882,7 +1891,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1893,7 +1902,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +1913,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1915,7 +1924,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1926,7 +1935,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +1946,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1950,7 +1959,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1961,7 +1970,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1972,7 +1981,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1983,18 +1992,20 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2005,7 +2016,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2027,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2027,7 +2038,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2038,7 +2049,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2049,7 +2060,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2071,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2071,7 +2082,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2082,7 +2093,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2093,7 +2104,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2104,7 +2115,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2115,7 +2126,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2126,7 +2137,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2148,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2148,7 +2159,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2159,7 +2170,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2170,7 +2181,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2181,7 +2192,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2192,7 +2203,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2203,10 +2214,19 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2216,14 +2236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
@@ -2235,7 +2255,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +2274,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2267,7 +2287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2280,7 +2300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2306,7 +2326,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2319,7 +2339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2332,7 +2352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2342,7 +2362,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2352,7 +2372,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2362,7 +2382,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2372,7 +2392,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2382,7 +2402,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2394,7 +2414,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2404,7 +2424,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2416,7 +2436,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2426,7 +2446,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2438,7 +2458,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2448,7 +2468,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2460,7 +2480,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2470,7 +2490,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2480,7 +2500,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2490,7 +2510,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2502,7 +2522,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2512,7 +2532,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2522,7 +2542,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2532,7 +2552,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2542,7 +2562,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2552,7 +2572,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2564,7 +2584,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2576,7 +2596,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2588,7 +2608,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2598,7 +2618,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2608,7 +2628,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2618,7 +2638,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2628,7 +2648,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2638,7 +2658,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2648,7 +2668,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2658,7 +2678,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2668,7 +2688,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2680,7 +2700,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2690,7 +2710,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2700,7 +2720,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2710,7 +2730,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2720,7 +2740,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2732,7 +2752,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2744,7 +2764,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2759,7 +2779,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小灰灰\Desktop\weixin\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDA620-E4D3-42D4-B72E-7DEDD1766F8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="10800" windowHeight="11400" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +519,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +611,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +682,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +979,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="39.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2056,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2121,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2132,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2143,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2164,36 +1554,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.8796296296296" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.37962962962963" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +1734,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +1745,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2369,7 +1756,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +1767,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +1778,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +1789,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +1800,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +1811,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +1822,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2446,7 +1833,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +1844,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +1855,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +1866,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +1877,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +1888,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +1899,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +1910,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +1921,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +1934,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +1945,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +1956,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +1967,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +1978,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2602,7 +1989,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2613,7 +2000,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2624,7 +2011,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2635,7 +2022,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2033,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2044,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2668,7 +2055,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2679,7 +2066,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2690,7 +2077,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2701,7 +2088,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2099,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2725,7 +2112,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2736,7 +2123,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2747,7 +2134,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2758,7 +2145,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2156,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2780,7 +2167,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2791,7 +2178,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2803,39 +2190,38 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8796296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2240,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +2253,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2880,7 +2266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2893,7 +2279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +2292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2919,7 +2305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2932,7 +2318,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2942,7 +2328,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2952,7 +2338,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2962,7 +2348,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2972,7 +2358,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2982,7 +2368,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2994,7 +2380,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3004,7 +2390,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3014,7 +2400,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3024,7 +2410,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3036,17 +2422,19 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3058,7 +2446,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3068,7 +2456,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3078,7 +2466,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3088,7 +2476,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3100,7 +2488,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3110,7 +2498,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3120,7 +2508,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3130,7 +2518,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3140,7 +2528,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3152,7 +2540,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3162,7 +2550,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -3172,7 +2560,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3182,7 +2570,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3192,7 +2580,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3202,7 +2590,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3212,7 +2600,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3222,7 +2610,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3232,7 +2620,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3242,7 +2630,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3252,7 +2640,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3262,7 +2650,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3274,7 +2662,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3284,7 +2672,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3294,7 +2682,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3304,7 +2692,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3314,7 +2702,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3326,7 +2714,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -3338,7 +2726,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3349,13 +2737,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小灰灰\Desktop\weixin\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDA620-E4D3-42D4-B72E-7DEDD1766F8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412DD27-1C45-4178-A206-A5AFF229F59B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="960" windowWidth="10800" windowHeight="11400" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -2206,7 +2206,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2471,9 @@
         <v>127</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小灰灰\Desktop\weixin\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412DD27-1C45-4178-A206-A5AFF229F59B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="10800" windowHeight="11400" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="10800" windowHeight="11400" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -489,8 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +520,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -984,14 +984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.88671875" customWidth="1"/>
@@ -999,7 +999,7 @@
     <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:D53"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
@@ -1565,14 +1565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
@@ -1580,7 +1580,7 @@
     <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2192,7 +2192,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2202,14 +2202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
@@ -2221,7 +2221,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2728,12 +2728,14 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D47" s="12"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -2741,11 +2743,11 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\asd\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="10800" windowHeight="11400" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -488,8 +483,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,22 +519,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -611,9 +935,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,17 +1248,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,27 +1589,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1645,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1766,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1808,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1221,7 +1831,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1907,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1963,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1972,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +2011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +2020,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1554,33 +2164,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +2212,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +2223,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +2236,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +2249,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +2262,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +2277,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +2290,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +2303,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +2314,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +2325,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +2336,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +2347,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +2358,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +2369,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +2380,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +2391,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +2402,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1800,18 +2413,20 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1822,18 +2437,20 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +2461,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1855,7 +2472,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +2483,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +2494,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +2505,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +2516,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +2527,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +2538,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +2551,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +2562,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +2573,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1967,7 +2584,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +2595,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1989,18 +2606,20 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2011,7 +2630,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +2641,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2652,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2044,7 +2663,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2055,7 +2674,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2066,7 +2685,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2077,7 +2696,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2088,7 +2707,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2718,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2112,7 +2731,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2123,7 +2742,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2134,7 +2753,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2145,7 +2764,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2156,7 +2775,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2167,7 +2786,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2178,7 +2797,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2190,7 +2809,6 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
       <formula1>$F$3:$F$8</formula1>
@@ -2198,30 +2816,32 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2860,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2253,7 +2873,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2266,7 +2886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2279,7 +2899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2292,7 +2912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2305,7 +2925,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2318,7 +2938,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2328,7 +2948,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2338,7 +2958,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2348,7 +2968,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2358,7 +2978,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2988,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2380,7 +3000,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2390,7 +3010,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2400,7 +3020,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2410,7 +3030,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2422,7 +3042,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2434,7 +3054,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2446,7 +3066,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2456,7 +3076,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2466,7 +3086,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2478,7 +3098,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2490,7 +3110,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2500,7 +3120,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2510,7 +3130,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2520,7 +3140,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2530,7 +3150,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2542,7 +3162,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2552,7 +3172,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2562,7 +3182,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2572,7 +3192,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2582,7 +3202,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2592,7 +3212,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2602,7 +3222,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2612,7 +3232,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2622,7 +3242,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2632,7 +3252,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2642,7 +3262,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2652,7 +3272,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2664,7 +3284,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2674,7 +3294,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2684,7 +3304,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2694,7 +3314,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2704,7 +3324,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2716,7 +3336,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2728,7 +3348,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -2741,13 +3361,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="13650" windowHeight="7665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -485,10 +485,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -519,8 +519,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -536,22 +558,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -559,22 +573,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +596,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,9 +624,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,7 +634,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,17 +642,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,21 +662,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -672,49 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,25 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,25 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,19 +738,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,13 +804,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,11 +936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,17 +955,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -980,17 +975,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,21 +1033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,8 +2181,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2341,7 +2341,9 @@
         <v>17</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2396,7 +2398,9 @@
         <v>23</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13650" windowHeight="7665" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21240" windowHeight="12180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -486,8 +486,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -520,32 +520,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,22 +530,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,8 +556,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,6 +573,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -618,7 +587,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,13 +619,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -657,7 +627,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +672,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +738,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,37 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,79 +822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,17 +936,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +952,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,43 +989,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,6 +1024,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,8 +2181,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2560,7 +2560,9 @@
         <v>53</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24511\Desktop\新建文件夹 (3)\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5B4540-F5F7-4E8C-B3D9-4B6CEF04B206}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12180" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="5760" yWindow="1248" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -483,14 +489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,345 +519,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -935,251 +611,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,61 +682,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1589,27 +979,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1842,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1887,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1907,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1929,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1963,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1983,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2056,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2084,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2121,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2132,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2143,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2164,36 +1554,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2349,7 +1736,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2360,7 +1747,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2371,7 +1758,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +1769,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2393,7 +1780,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2406,7 +1793,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2417,7 +1804,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2430,7 +1817,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +1828,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2454,7 +1841,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2465,7 +1852,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +1863,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2487,7 +1874,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2498,7 +1885,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2509,7 +1896,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2520,7 +1907,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2531,7 +1918,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2542,7 +1929,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2555,7 +1942,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2568,7 +1955,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2579,7 +1966,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2590,7 +1977,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2601,7 +1988,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2612,7 +1999,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2625,7 +2012,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2636,7 +2023,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2647,7 +2034,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2658,7 +2045,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2669,7 +2056,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2680,7 +2067,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2691,7 +2078,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2702,7 +2089,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +2100,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2724,7 +2111,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2737,7 +2124,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2748,7 +2135,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2759,7 +2146,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2770,7 +2157,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2781,18 +2168,20 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2803,7 +2192,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2815,39 +2204,38 @@
       <c r="G53" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C53" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2254,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2879,7 +2267,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2892,7 +2280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2905,7 +2293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2918,7 +2306,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2931,7 +2319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2944,7 +2332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2954,7 +2342,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2964,7 +2352,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2974,7 +2362,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2984,7 +2372,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2994,7 +2382,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -3006,7 +2394,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -3016,7 +2404,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -3026,7 +2414,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3036,7 +2424,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -3048,7 +2436,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -3060,7 +2448,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -3072,7 +2460,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -3082,7 +2470,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -3092,7 +2480,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -3104,7 +2492,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -3116,7 +2504,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -3126,7 +2514,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -3136,7 +2524,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -3146,7 +2534,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -3156,7 +2544,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -3168,7 +2556,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -3178,7 +2566,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -3188,7 +2576,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3198,7 +2586,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -3208,7 +2596,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3218,7 +2606,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -3228,7 +2616,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -3238,7 +2626,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -3248,7 +2636,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3258,7 +2646,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -3268,7 +2656,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -3278,7 +2666,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -3290,7 +2678,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -3300,7 +2688,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -3310,7 +2698,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -3320,7 +2708,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -3330,7 +2718,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -3342,7 +2730,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -3354,7 +2742,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>
@@ -3367,13 +2755,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24511\Desktop\新建文件夹 (3)\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课堂\000\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5B4540-F5F7-4E8C-B3D9-4B6CEF04B206}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2384E50-6873-440B-B386-00D225AE01F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1248" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
   <si>
     <t>姓名</t>
   </si>
@@ -991,15 +991,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1568,19 +1568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1841,18 +1841,20 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1863,7 +1865,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1874,7 +1876,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1887,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1898,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1907,7 +1909,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1929,7 +1931,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1942,7 +1944,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1955,7 +1957,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1966,7 +1968,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1977,7 +1979,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1988,7 +1990,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -1999,7 +2001,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2012,7 +2014,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2025,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2034,7 +2036,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2045,7 +2047,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2056,7 +2058,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +2069,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2078,7 +2080,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2091,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2100,7 +2102,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2111,7 +2113,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2124,7 +2126,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2135,7 +2137,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2146,7 +2148,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2157,7 +2159,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2168,7 +2170,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2181,7 +2183,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2192,7 +2194,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2223,19 +2225,19 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +2256,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
@@ -2267,7 +2269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2342,7 +2344,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2362,7 +2364,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -2372,7 +2374,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2382,7 +2384,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>118</v>
       </c>
@@ -2394,7 +2396,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>119</v>
       </c>
@@ -2404,7 +2406,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2414,7 +2416,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -2424,7 +2426,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2436,7 +2438,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
@@ -2448,7 +2450,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -2460,7 +2462,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>125</v>
       </c>
@@ -2470,7 +2472,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>126</v>
       </c>
@@ -2480,7 +2482,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>127</v>
       </c>
@@ -2492,7 +2494,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>128</v>
       </c>
@@ -2504,7 +2506,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2514,7 +2516,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>130</v>
       </c>
@@ -2524,7 +2526,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>131</v>
       </c>
@@ -2534,7 +2536,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -2544,7 +2546,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>133</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
@@ -2566,7 +2568,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>135</v>
       </c>
@@ -2576,7 +2578,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>137</v>
       </c>
@@ -2596,7 +2598,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
@@ -2616,7 +2618,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>141</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -2646,7 +2648,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>144</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2678,7 +2680,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2688,7 +2690,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>147</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -2708,7 +2710,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -2718,7 +2720,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>150</v>
       </c>
@@ -2730,7 +2732,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
@@ -2742,7 +2744,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>152</v>
       </c>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHINFESE\Desktop\0425\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7AF71-78F5-4E71-AF26-6533EFF68FE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -333,24 +327,27 @@
     <t>后续跟踪</t>
   </si>
   <si>
+    <t>web前端开发</t>
+  </si>
+  <si>
+    <t>自主择业</t>
+  </si>
+  <si>
     <t>java开发</t>
   </si>
   <si>
-    <t>web前端开发</t>
-  </si>
-  <si>
     <t>运维</t>
   </si>
   <si>
-    <t>自主择业</t>
-  </si>
-  <si>
     <t>网络营销</t>
   </si>
   <si>
     <t>专接本</t>
   </si>
   <si>
+    <t>郭威</t>
+  </si>
+  <si>
     <t>张乘槊</t>
   </si>
   <si>
@@ -484,21 +481,19 @@
   </si>
   <si>
     <t>刘冬颖</t>
-  </si>
-  <si>
-    <t>java开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭威</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,22 +522,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -620,9 +938,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -691,17 +1251,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -988,27 +1592,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1648,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1111,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1749,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1759,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1769,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1789,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1195,7 +1799,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1207,7 +1811,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1230,7 +1834,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1241,7 +1845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1250,7 +1854,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1264,7 +1868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1275,7 +1879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1286,7 +1890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1297,7 +1901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1306,7 +1910,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1317,7 +1921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1328,7 +1932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1342,7 +1946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1353,7 +1957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1966,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1371,7 +1975,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1382,7 +1986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1396,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1410,7 +2014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1419,7 +2023,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1430,7 +2034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1444,7 +2048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1455,7 +2059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1469,7 +2073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1483,7 +2087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1497,7 +2101,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1509,7 +2113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1520,7 +2124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1531,7 +2135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1542,7 +2146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1551,7 +2155,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1563,33 +2167,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8888888888889" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1608,71 +2215,71 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1681,28 +2288,28 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1711,20 +2318,20 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +2342,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +2353,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +2364,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1768,7 +2375,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +2386,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1790,7 +2397,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +2408,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +2419,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +2430,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1834,7 +2441,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1845,7 +2452,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1856,20 +2463,20 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1880,7 +2487,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +2498,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1902,7 +2509,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +2520,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1924,7 +2531,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1935,7 +2542,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1946,20 +2553,20 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1970,7 +2577,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1981,7 +2588,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1992,20 +2599,20 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2016,7 +2623,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2027,7 +2634,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2038,7 +2645,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2049,7 +2656,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2060,7 +2667,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2071,7 +2678,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2082,7 +2689,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2093,7 +2700,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2104,7 +2711,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2115,7 +2722,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2126,7 +2733,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2137,7 +2744,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2148,7 +2755,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2159,7 +2766,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2170,7 +2777,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2181,7 +2788,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2192,7 +2799,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2203,7 +2810,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2214,9 +2821,9 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customHeight="1" spans="1:7">
       <c r="A54" s="14" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2224,38 +2831,39 @@
       <c r="G54" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2274,9 +2882,9 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2284,12 +2892,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2297,10 +2905,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2310,12 +2918,12 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2326,9 +2934,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2336,12 +2944,12 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2352,9 +2960,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2362,9 +2970,9 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2372,9 +2980,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2382,9 +2990,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2392,9 +3000,9 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2402,21 +3010,21 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2424,21 +3032,21 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2446,21 +3054,21 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2468,21 +3076,21 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2490,9 +3098,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2500,9 +3108,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2510,21 +3118,21 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2532,19 +3140,21 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2552,9 +3162,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2562,9 +3172,9 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2572,45 +3182,45 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2618,9 +3228,9 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2628,9 +3238,9 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2638,9 +3248,9 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2648,9 +3258,9 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2658,9 +3268,9 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2668,9 +3278,9 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2678,9 +3288,9 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2688,21 +3298,21 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2710,9 +3320,9 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2720,9 +3330,9 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2730,9 +3340,9 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2740,50 +3350,50 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9084" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -488,10 +488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -522,14 +522,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -545,10 +537,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,60 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,8 +574,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,6 +628,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -658,11 +643,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,7 +675,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,61 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,37 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,43 +837,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,26 +939,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -983,17 +963,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,21 +1013,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1036,6 +1021,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,133 +1056,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,12 +1604,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="39.8916666666667" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="26.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2190,9 +2190,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.8888888888889" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8916666666667" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.225" customWidth="1"/>
     <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2847,15 +2847,15 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8916666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
@@ -2995,7 +2995,9 @@
         <v>117</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -3243,7 +3245,9 @@
         <v>140</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D34" s="12"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -486,14 +486,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,345 +516,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -938,251 +608,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,57 +679,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1592,27 +973,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.225" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1029,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1707,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1739,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1130,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1140,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1150,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1789,7 +1170,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1799,7 +1180,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1811,7 +1192,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1834,7 +1215,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1845,7 +1226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1854,7 +1235,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1890,7 +1271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1901,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1910,7 +1291,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1921,7 +1302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1957,7 +1338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1966,7 +1347,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1975,7 +1356,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1986,7 +1367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +1381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2014,7 +1395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2023,7 +1404,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2034,7 +1415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2048,7 +1429,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2059,7 +1440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2073,7 +1454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2087,7 +1468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2101,7 +1482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2113,7 +1494,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2124,7 +1505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2135,7 +1516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2146,7 +1527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2155,7 +1536,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2167,36 +1548,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.8916666666667" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.225" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +1593,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2228,7 +1606,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2243,7 +1621,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +1636,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +1651,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +1666,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +1681,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +1696,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2331,7 +1709,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +1720,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2353,7 +1731,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +1742,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2375,7 +1753,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2386,7 +1764,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2397,7 +1775,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +1786,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2419,7 +1797,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2430,7 +1808,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2441,7 +1819,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2452,7 +1830,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2463,7 +1841,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2476,7 +1854,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2487,7 +1865,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +1876,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2509,7 +1887,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2520,7 +1898,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2531,7 +1909,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2542,7 +1920,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +1931,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2566,7 +1944,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2577,7 +1955,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2588,7 +1966,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2599,7 +1977,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2612,7 +1990,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2623,7 +2001,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2634,7 +2012,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2645,7 +2023,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2656,7 +2034,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2667,7 +2045,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2678,7 +2056,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2689,7 +2067,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2700,7 +2078,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2711,7 +2089,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2722,7 +2100,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2111,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2744,7 +2122,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2133,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2766,7 +2144,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2777,7 +2155,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2788,7 +2166,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2177,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2810,7 +2188,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2821,7 +2199,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" customHeight="1" spans="1:7">
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>108</v>
       </c>
@@ -2831,6 +2209,7 @@
       <c r="G54" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54">
       <formula1>$F$3:$F$8</formula1>
@@ -2838,32 +2217,30 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8916666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2259,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
@@ -2895,7 +2272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
@@ -2908,7 +2285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2921,7 +2298,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>111</v>
       </c>
@@ -2934,7 +2311,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
@@ -2947,7 +2324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>113</v>
       </c>
@@ -2960,7 +2337,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
@@ -2970,7 +2347,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
@@ -2980,7 +2357,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -2990,7 +2367,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
@@ -3002,7 +2379,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -3012,7 +2389,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
@@ -3024,7 +2401,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
@@ -3034,7 +2411,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
@@ -3046,7 +2423,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -3056,7 +2433,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
@@ -3068,7 +2445,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>124</v>
       </c>
@@ -3078,7 +2455,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>125</v>
       </c>
@@ -3090,7 +2467,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>126</v>
       </c>
@@ -3100,17 +2477,19 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>128</v>
       </c>
@@ -3120,7 +2499,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -3132,7 +2511,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -3142,7 +2521,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>131</v>
       </c>
@@ -3154,7 +2533,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -3164,7 +2543,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
@@ -3174,7 +2553,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
@@ -3184,7 +2563,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -3196,7 +2575,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>136</v>
       </c>
@@ -3208,7 +2587,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>137</v>
       </c>
@@ -3220,7 +2599,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>138</v>
       </c>
@@ -3230,7 +2609,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
@@ -3240,7 +2619,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>140</v>
       </c>
@@ -3252,7 +2631,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>141</v>
       </c>
@@ -3262,7 +2641,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>142</v>
       </c>
@@ -3272,7 +2651,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -3282,7 +2661,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>144</v>
       </c>
@@ -3292,7 +2671,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>145</v>
       </c>
@@ -3302,7 +2681,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>146</v>
       </c>
@@ -3314,7 +2693,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
@@ -3324,7 +2703,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>148</v>
       </c>
@@ -3334,7 +2713,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>149</v>
       </c>
@@ -3344,7 +2723,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>150</v>
       </c>
@@ -3354,7 +2733,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
@@ -3366,7 +2745,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -3378,7 +2757,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>153</v>
       </c>
@@ -3391,13 +2770,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="21990" windowHeight="11280" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -486,8 +486,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,21 +522,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -608,9 +938,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -679,10 +1251,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -973,27 +1592,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1648,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1104,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1112,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1749,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1759,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1769,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1170,7 +1789,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1180,7 +1799,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1192,7 +1811,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1203,7 +1822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1834,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1854,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1249,7 +1868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1260,7 +1879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1271,7 +1890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1282,7 +1901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1291,7 +1910,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1302,7 +1921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1313,7 +1932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1327,7 +1946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1338,7 +1957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1347,7 +1966,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1356,7 +1975,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1367,7 +1986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1381,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1395,7 +2014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1404,7 +2023,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1415,7 +2034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1429,7 +2048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1440,7 +2059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1454,7 +2073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1468,7 +2087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1482,7 +2101,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1494,7 +2113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1505,7 +2124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1516,7 +2135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1527,7 +2146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1536,7 +2155,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1548,33 +2167,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53"/>
+  <autoFilter ref="A2:D53">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +2215,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +2228,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1621,7 +2243,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +2258,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +2273,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +2288,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +2303,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1696,7 +2318,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +2331,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +2342,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +2353,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +2364,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1753,7 +2375,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1764,7 +2386,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +2397,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1786,7 +2408,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +2419,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +2430,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +2441,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1830,7 +2452,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1841,7 +2463,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +2476,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1865,7 +2487,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +2498,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1887,7 +2509,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1898,7 +2520,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1909,7 +2531,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +2542,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1931,7 +2553,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1944,7 +2566,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1955,7 +2577,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1966,7 +2588,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1977,7 +2599,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1990,7 +2612,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2001,7 +2623,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2012,7 +2634,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2645,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2034,7 +2656,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2045,7 +2667,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2056,7 +2678,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +2689,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2078,7 +2700,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2711,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2100,7 +2722,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2111,7 +2733,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2122,7 +2744,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2133,7 +2755,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2144,7 +2766,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2155,7 +2777,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2166,7 +2788,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2177,7 +2799,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2188,7 +2810,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2199,7 +2821,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customHeight="1" spans="1:7">
       <c r="A54" s="14" t="s">
         <v>108</v>
       </c>
@@ -2209,7 +2831,6 @@
       <c r="G54" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54">
       <formula1>$F$3:$F$8</formula1>
@@ -2217,30 +2838,32 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2882,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
@@ -2272,7 +2895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
@@ -2285,7 +2908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2298,7 +2921,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>111</v>
       </c>
@@ -2311,12 +2934,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2324,7 +2949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>113</v>
       </c>
@@ -2337,7 +2962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
@@ -2347,7 +2972,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
@@ -2357,7 +2982,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -2367,7 +2992,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
@@ -2379,7 +3004,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -2389,7 +3014,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
@@ -2401,7 +3026,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
@@ -2411,7 +3036,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
@@ -2423,7 +3048,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -2433,7 +3058,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
@@ -2445,7 +3070,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>124</v>
       </c>
@@ -2455,7 +3080,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>125</v>
       </c>
@@ -2467,7 +3092,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>126</v>
       </c>
@@ -2477,7 +3102,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>127</v>
       </c>
@@ -2489,7 +3114,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>128</v>
       </c>
@@ -2499,7 +3124,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -2511,7 +3136,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -2521,7 +3146,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>131</v>
       </c>
@@ -2533,7 +3158,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -2543,7 +3168,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
@@ -2553,7 +3178,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
@@ -2563,7 +3188,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -2575,7 +3200,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>136</v>
       </c>
@@ -2587,7 +3212,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>137</v>
       </c>
@@ -2599,7 +3224,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>138</v>
       </c>
@@ -2609,7 +3234,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
@@ -2619,7 +3244,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>140</v>
       </c>
@@ -2631,7 +3256,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>141</v>
       </c>
@@ -2641,7 +3266,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>142</v>
       </c>
@@ -2651,7 +3276,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -2661,7 +3286,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>144</v>
       </c>
@@ -2671,7 +3296,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="13" t="s">
         <v>145</v>
       </c>
@@ -2681,7 +3306,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>146</v>
       </c>
@@ -2693,7 +3318,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
@@ -2703,7 +3328,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>148</v>
       </c>
@@ -2713,7 +3338,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>149</v>
       </c>
@@ -2723,7 +3348,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>150</v>
       </c>
@@ -2733,7 +3358,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
@@ -2745,7 +3370,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -2757,7 +3382,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>153</v>
       </c>
@@ -2770,13 +3395,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1771\Desktop\wode\java04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308203A2-8E0B-4C7E-8C05-C7E3A27533FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21990" windowHeight="11280" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -486,14 +492,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,345 +522,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -938,251 +614,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,61 +685,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1592,27 +982,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1038,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1707,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1739,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1139,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1149,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1159,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1789,7 +1179,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1799,7 +1189,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1811,7 +1201,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1834,7 +1224,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1845,7 +1235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1854,7 +1244,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1890,7 +1280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1901,7 +1291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1910,7 +1300,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1921,7 +1311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1957,7 +1347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1966,7 +1356,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1975,7 +1365,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1986,7 +1376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +1390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -2014,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -2023,7 +1413,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2034,7 +1424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -2048,7 +1438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -2059,7 +1449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2073,7 +1463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -2087,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -2101,7 +1491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -2113,7 +1503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -2124,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -2135,7 +1525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -2146,7 +1536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -2155,7 +1545,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -2167,36 +1557,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D53">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:D53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A18:E52">
     <sortCondition ref="B18:B52"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.8833333333333" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +1602,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -2228,7 +1615,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -2243,7 +1630,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +1645,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +1660,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +1675,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +1690,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +1705,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2331,7 +1718,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +1729,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2353,7 +1740,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +1751,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2375,7 +1762,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2386,7 +1773,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2397,7 +1784,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +1795,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2419,7 +1806,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2430,7 +1817,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -2441,7 +1828,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -2452,7 +1839,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2463,7 +1850,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -2476,7 +1863,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -2487,7 +1874,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +1885,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -2509,7 +1896,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -2520,7 +1907,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -2531,7 +1918,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -2542,7 +1929,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +1940,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -2566,7 +1953,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -2577,7 +1964,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -2588,7 +1975,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -2599,7 +1986,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -2612,7 +1999,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2623,7 +2010,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2634,7 +2021,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2645,7 +2032,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2656,7 +2043,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2667,7 +2054,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2678,7 +2065,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2689,7 +2076,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2700,7 +2087,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2711,7 +2098,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2722,7 +2109,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2120,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2744,7 +2131,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2142,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2766,7 +2153,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:7">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2777,7 +2164,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customHeight="1" spans="1:7">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2788,7 +2175,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customHeight="1" spans="1:7">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2186,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2810,7 +2197,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customHeight="1" spans="1:7">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2821,7 +2208,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" customHeight="1" spans="1:7">
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>108</v>
       </c>
@@ -2831,39 +2218,38 @@
       <c r="G54" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$3:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2268,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
@@ -2895,7 +2281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
@@ -2908,7 +2294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2921,7 +2307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>111</v>
       </c>
@@ -2934,7 +2320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
@@ -2949,7 +2335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>113</v>
       </c>
@@ -2962,7 +2348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
@@ -2972,7 +2358,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
@@ -2982,7 +2368,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -2992,7 +2378,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
@@ -3004,7 +2390,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -3014,7 +2400,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
@@ -3026,7 +2412,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
@@ -3036,7 +2422,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
@@ -3048,7 +2434,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -3058,7 +2444,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
@@ -3070,7 +2456,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>124</v>
       </c>
@@ -3080,7 +2466,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>125</v>
       </c>
@@ -3092,7 +2478,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>126</v>
       </c>
@@ -3102,7 +2488,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>127</v>
       </c>
@@ -3114,7 +2500,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>128</v>
       </c>
@@ -3124,7 +2510,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -3136,7 +2522,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -3146,7 +2532,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>131</v>
       </c>
@@ -3158,7 +2544,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -3168,7 +2554,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
@@ -3178,7 +2564,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
@@ -3188,7 +2574,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -3200,7 +2586,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>136</v>
       </c>
@@ -3212,7 +2598,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>137</v>
       </c>
@@ -3224,7 +2610,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>138</v>
       </c>
@@ -3234,7 +2620,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
@@ -3244,7 +2630,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>140</v>
       </c>
@@ -3256,7 +2642,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>141</v>
       </c>
@@ -3266,17 +2652,19 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="12"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -3286,7 +2674,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>144</v>
       </c>
@@ -3296,7 +2684,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>145</v>
       </c>
@@ -3306,7 +2694,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>146</v>
       </c>
@@ -3318,7 +2706,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
@@ -3328,7 +2716,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>148</v>
       </c>
@@ -3338,7 +2726,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>149</v>
       </c>
@@ -3348,7 +2736,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>150</v>
       </c>
@@ -3358,7 +2746,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
@@ -3370,7 +2758,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -3382,7 +2770,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>153</v>
       </c>
@@ -3395,13 +2783,13 @@
       <c r="F47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$G$2:$G$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1771\Desktop\wode\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\13\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308203A2-8E0B-4C7E-8C05-C7E3A27533FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEE6B8-A337-4004-A1CE-C7DD187FD0F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -994,15 +994,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1575,15 +1575,15 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
         <v>108</v>
       </c>
@@ -2234,22 +2234,22 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>111</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>113</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>124</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>125</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>126</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>127</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>128</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>131</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>136</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>137</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>138</v>
       </c>
@@ -2620,17 +2620,19 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D33" s="12"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>140</v>
       </c>
@@ -2642,7 +2644,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>141</v>
       </c>
@@ -2652,7 +2654,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>142</v>
       </c>
@@ -2664,7 +2666,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -2674,7 +2676,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>144</v>
       </c>
@@ -2684,7 +2686,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>145</v>
       </c>
@@ -2694,7 +2696,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>146</v>
       </c>
@@ -2706,7 +2708,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
@@ -2716,7 +2718,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>148</v>
       </c>
@@ -2726,7 +2728,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>149</v>
       </c>
@@ -2736,7 +2738,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>150</v>
       </c>
@@ -2746,7 +2748,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
@@ -2758,7 +2760,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -2770,7 +2772,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>153</v>
       </c>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\13\java04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81050\Desktop\1\java04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEE6B8-A337-4004-A1CE-C7DD187FD0F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CCE9F-F1CE-4947-B14B-EC527386B750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -994,15 +994,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>53</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>54</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>60</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>63</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>64</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>70</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>76</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>83</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>87</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>89</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>90</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>92</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>94</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
@@ -1571,19 +1571,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>36</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>54</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>62</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>66</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>70</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>74</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>87</v>
       </c>
@@ -2153,18 +2153,20 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -2175,7 +2177,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -2186,7 +2188,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -2197,7 +2199,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2208,7 +2210,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>108</v>
       </c>
@@ -2233,23 +2235,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2270,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>111</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
@@ -2335,7 +2337,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>113</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>114</v>
       </c>
@@ -2358,7 +2360,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
@@ -2368,7 +2370,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -2378,7 +2380,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
@@ -2390,7 +2392,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -2400,7 +2402,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
@@ -2412,7 +2414,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>120</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
@@ -2434,7 +2436,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -2444,7 +2446,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
@@ -2456,7 +2458,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>124</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>125</v>
       </c>
@@ -2478,7 +2480,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>126</v>
       </c>
@@ -2488,7 +2490,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>127</v>
       </c>
@@ -2500,7 +2502,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>128</v>
       </c>
@@ -2510,7 +2512,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -2522,7 +2524,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>131</v>
       </c>
@@ -2544,7 +2546,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -2554,7 +2556,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
@@ -2564,7 +2566,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
@@ -2574,7 +2576,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>136</v>
       </c>
@@ -2598,7 +2600,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>137</v>
       </c>
@@ -2610,7 +2612,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>138</v>
       </c>
@@ -2620,7 +2622,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>140</v>
       </c>
@@ -2644,7 +2646,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>141</v>
       </c>
@@ -2654,7 +2656,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>142</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>144</v>
       </c>
@@ -2686,7 +2688,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>145</v>
       </c>
@@ -2696,7 +2698,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>146</v>
       </c>
@@ -2708,7 +2710,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
@@ -2718,7 +2720,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>148</v>
       </c>
@@ -2728,7 +2730,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>149</v>
       </c>
@@ -2738,7 +2740,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>150</v>
       </c>
@@ -2748,7 +2750,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
@@ -2760,7 +2762,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -2772,7 +2774,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>153</v>
       </c>

--- a/java03、java04.xlsx
+++ b/java03、java04.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81050\Desktop\1\java04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126CCE9F-F1CE-4947-B14B-EC527386B750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23256" windowHeight="9647" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="154">
   <si>
     <t>姓名</t>
   </si>
@@ -492,8 +486,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,21 +522,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -614,9 +938,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -685,17 +1251,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyl